--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam_nsqp.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam_nsqp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\QuyetToan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\QuyetToan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -405,66 +405,6 @@
     <t>&lt;#ItemsPhanTich.FDuToanThuHoi&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.FTongMucDauTu&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FLuyKeThanhToanNamTruoc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTamUngTheoCheDoChuaThuHoiNamTruoc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriTamUngDieuChinhGiam&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTamUngNamTruocThuHoiNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FKHVNamTruocChuyenNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongThanhToanVonKeoDaiNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongThanhToanSuDungVonNamTruoc&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTamUngTheoCheDoChuaThuHoiKeoDaiNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamTruocChuyenNamSau&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonConLaiHuyBoKeoDaiNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FKHVNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongKeHoachThanhToanVonNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongThanhToanSuDungVonNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTamUngTheoCheDoChuaThuHoiNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamNayChuyenNamSau&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonConLaiHuyBoNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongVonThanhToanNamNay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FLuyKeTamUngChuaThuHoiChuyenSangNam&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FLuyKeConDaThanhToanHetNamNay&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ItemsPhanTich.FDaTamUngTheoCheDoChuaThuHoi&gt;</t>
   </si>
   <si>
@@ -517,6 +457,66 @@
   </si>
   <si>
     <t>&lt;#ThuaLenh4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongMucDauTu&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FLuyKeThanhToanNamTruoc&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTamUngTheoCheDoChuaThuHoiNamTruoc&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriTamUngDieuChinhGiam&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTamUngNamTruocThuHoiNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FKHVNamTruocChuyenNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongThanhToanVonKeoDaiNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongThanhToanSuDungVonNamTruoc&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTamUngTheoCheDoChuaThuHoiKeoDaiNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamTruocChuyenNamSau&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FVonConLaiHuyBoKeoDaiNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FKHVNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongKeHoachThanhToanVonNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongThanhToanSuDungVonNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTamUngTheoCheDoChuaThuHoiNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FGiaTriNamNayChuyenNamSau&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FVonConLaiHuyBoNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FTongVonThanhToanNamNay&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FLuyKeTamUngChuaThuHoiChuyenSangNam&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.FLuyKeConDaThanhToanHetNamNay&gt;)&gt;</t>
   </si>
 </sst>
 </file>
@@ -903,46 +903,57 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,17 +965,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1772,11 +1772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1798,11 +1798,11 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1824,200 +1824,200 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
     </row>
     <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
     </row>
     <row r="5" spans="1:26" ht="16.5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="36" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
     </row>
     <row r="6" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37" t="s">
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="47" t="s">
+      <c r="W6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="47" t="s">
+      <c r="X6" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37" t="s">
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37" t="s">
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
     </row>
     <row r="8" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="26" t="s">
         <v>5</v>
       </c>
@@ -2027,9 +2027,9 @@
       <c r="M8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="26" t="s">
         <v>5</v>
       </c>
@@ -2039,11 +2039,11 @@
       <c r="S8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
     </row>
     <row r="9" spans="1:26" s="25" customFormat="1" ht="54" customHeight="1">
       <c r="A9" s="27">
@@ -2133,401 +2133,399 @@
         <v>15</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="V10" s="32" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="X10" s="33" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="55" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="55" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
-      <c r="A16" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
+      <c r="A16" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
     </row>
     <row r="17" spans="1:24" ht="16.5">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
     </row>
     <row r="18" spans="1:24" ht="16.5">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="55" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="55" t="s">
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
     </row>
     <row r="19" spans="1:24" ht="16.5">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:24" ht="16.5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:24" ht="16.5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:24" ht="16.5">
-      <c r="A22" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="A22" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
     </row>
     <row r="23" spans="1:24" ht="16.5">
-      <c r="A23" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
+      <c r="A23" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
     </row>
     <row r="24" spans="1:24" ht="16.5">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
     </row>
     <row r="25" spans="1:24" ht="16.5">
-      <c r="A25" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
+      <c r="A25" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="S25:X25"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="S16:X16"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D6:D8"/>
@@ -2544,23 +2542,25 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="S25:X25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0"/>
-  <pageSetup paperSize="8" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="35" max="23" man="1"/>
   </rowBreaks>
@@ -2609,140 +2609,140 @@
   <sheetData>
     <row r="1" spans="1:30" ht="27.75" customHeight="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="21" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="53" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54" t="s">
         <v>60</v>
       </c>
       <c r="AB2" s="20"/>
     </row>
     <row r="3" spans="1:30" ht="31.5" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
       <c r="AB3" s="20"/>
     </row>
     <row r="4" spans="1:30" ht="63">
       <c r="A4" s="20"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="21" t="s">
         <v>67</v>
       </c>
@@ -2767,14 +2767,14 @@
       <c r="K4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="21" t="s">
         <v>64</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="Z4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="53"/>
+      <c r="AA4" s="54"/>
       <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
@@ -2899,10 +2899,10 @@
         <v>111</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>112</v>
@@ -2911,10 +2911,10 @@
         <v>113</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>114</v>
@@ -2923,7 +2923,7 @@
         <v>115</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>116</v>
@@ -2932,13 +2932,13 @@
         <v>117</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="U6" s="24" t="s">
         <v>118</v>
@@ -2947,7 +2947,7 @@
         <v>119</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="X6" s="24" t="s">
         <v>120</v>
@@ -3123,6 +3123,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="T3:V3"/>
@@ -3139,10 +3143,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="45" orientation="landscape" r:id="rId1"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam_nsqp.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam_nsqp.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="__Items__">'Số liệu tổng hợp'!$A$10:$X$10</definedName>
     <definedName name="__ItemsPhanTich__">'Phân tích số liệu'!$B$6:$AA$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Số liệu tổng hợp'!$A$1:$X$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Số liệu tổng hợp'!$A$1:$X$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -905,54 +905,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,6 +960,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1746,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1772,11 +1772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1798,11 +1798,11 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1901,57 +1901,57 @@
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="52" t="s">
+      <c r="T5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-    </row>
-    <row r="6" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+    </row>
+    <row r="6" spans="1:26" s="25" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41" t="s">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="49" t="s">
@@ -1961,63 +1961,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+    <row r="7" spans="1:26" s="25" customFormat="1" ht="16.5">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="39" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="44"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="41"/>
+      <c r="V7" s="39"/>
       <c r="W7" s="50"/>
       <c r="X7" s="50"/>
     </row>
-    <row r="8" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+    <row r="8" spans="1:26" s="25" customFormat="1" ht="150" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="26" t="s">
         <v>5</v>
       </c>
@@ -2027,9 +2027,9 @@
       <c r="M8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="26" t="s">
         <v>5</v>
       </c>
@@ -2039,13 +2039,13 @@
       <c r="S8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:26" s="25" customFormat="1" ht="54" customHeight="1">
+    <row r="9" spans="1:26" s="25" customFormat="1" ht="16.5">
       <c r="A9" s="27">
         <v>1</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="25" customFormat="1" ht="106.5" customHeight="1">
+    <row r="10" spans="1:26" s="25" customFormat="1" ht="99">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -2196,68 +2196,68 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="37"/>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="37"/>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
     </row>
     <row r="17" spans="1:24" ht="16.5">
       <c r="A17" s="36"/>
@@ -2286,36 +2286,36 @@
       <c r="X17" s="36"/>
     </row>
     <row r="18" spans="1:24" ht="16.5">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="37"/>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
     </row>
     <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="36"/>
@@ -2396,15 +2396,15 @@
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:24" ht="16.5">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -2416,25 +2416,25 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
     </row>
     <row r="23" spans="1:24" ht="16.5">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -2446,14 +2446,14 @@
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="36"/>
-      <c r="S23" s="38" t="s">
+      <c r="S23" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
     </row>
     <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="36"/>
@@ -2482,15 +2482,15 @@
       <c r="X24" s="36"/>
     </row>
     <row r="25" spans="1:24" ht="16.5">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -2502,30 +2502,32 @@
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="36"/>
-      <c r="S25" s="38" t="s">
+      <c r="S25" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="S25:X25"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K18:Q18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D6:D8"/>
@@ -2542,21 +2544,19 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="S16:X16"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="S25:X25"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0"/>
@@ -2609,140 +2609,140 @@
   <sheetData>
     <row r="1" spans="1:30" ht="27.75" customHeight="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="21" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="53" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54" t="s">
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53" t="s">
         <v>60</v>
       </c>
       <c r="AB2" s="20"/>
     </row>
     <row r="3" spans="1:30" ht="31.5" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="56" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="R3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54" t="s">
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
       <c r="AB3" s="20"/>
     </row>
     <row r="4" spans="1:30" ht="63">
       <c r="A4" s="20"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="21" t="s">
         <v>67</v>
       </c>
@@ -2767,14 +2767,14 @@
       <c r="K4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
       <c r="T4" s="21" t="s">
         <v>64</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="Z4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="54"/>
+      <c r="AA4" s="53"/>
       <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
@@ -3123,7 +3123,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:O2"/>
@@ -3143,6 +3142,7 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="45" orientation="landscape" r:id="rId1"/>
